--- a/testing.xlsx
+++ b/testing.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>SubjectID</t>
   </si>
@@ -47,65 +47,16 @@
     <t>Dialysis</t>
   </si>
   <si>
-    <t xml:space="preserve">ListYears
-</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
     <t>MELD</t>
   </si>
   <si>
-    <t>pALB</t>
-  </si>
-  <si>
-    <t>pBILT</t>
-  </si>
-  <si>
-    <t>pCREAT</t>
-  </si>
-  <si>
-    <t>pINR</t>
-  </si>
-  <si>
-    <t>pNa</t>
-  </si>
-  <si>
-    <t>pMELD</t>
-  </si>
-  <si>
-    <t>pDialysis</t>
-  </si>
-  <si>
-    <t>dBILT</t>
-  </si>
-  <si>
-    <t>dCREAT</t>
-  </si>
-  <si>
-    <t>dINR</t>
-  </si>
-  <si>
-    <t>dALB</t>
-  </si>
-  <si>
-    <t>dNa</t>
-  </si>
-  <si>
-    <t>dMELD</t>
-  </si>
-  <si>
-    <t>eBILT</t>
-  </si>
-  <si>
-    <t>eCREAT</t>
-  </si>
-  <si>
-    <t>eINR</t>
-  </si>
-  <si>
-    <t>Live</t>
+    <t>Mortality</t>
+  </si>
+  <si>
+    <t>ListYears</t>
   </si>
 </sst>
 </file>
@@ -427,15 +378,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -458,67 +409,19 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -550,58 +453,10 @@
         <v>20</v>
       </c>
       <c r="K2" s="2">
-        <v>24</v>
-      </c>
-      <c r="L2" s="2">
-        <v>29</v>
-      </c>
-      <c r="M2" s="2">
-        <v>195</v>
-      </c>
-      <c r="N2" s="2">
-        <v>1.62</v>
-      </c>
-      <c r="O2" s="2">
-        <v>133</v>
-      </c>
-      <c r="P2" s="2">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2">
-        <v>24</v>
-      </c>
-      <c r="S2" s="2">
-        <v>-55</v>
-      </c>
-      <c r="T2" s="2">
-        <v>-2.0000000000000018E-2</v>
-      </c>
-      <c r="U2" s="2">
-        <v>-3</v>
-      </c>
-      <c r="V2" s="2">
-        <v>1</v>
-      </c>
-      <c r="W2" s="2">
-        <v>-1</v>
-      </c>
-      <c r="X2" s="2">
-        <v>1.7242758696007889</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>2.1461280356782382</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>0.20411998265592479</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -633,58 +488,10 @@
         <v>27</v>
       </c>
       <c r="K3" s="2">
-        <v>26</v>
-      </c>
-      <c r="L3" s="2">
-        <v>25</v>
-      </c>
-      <c r="M3" s="2">
-        <v>64</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="O3" s="2">
-        <v>139</v>
-      </c>
-      <c r="P3" s="2">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2">
-        <v>-1</v>
-      </c>
-      <c r="S3" s="2">
-        <v>14</v>
-      </c>
-      <c r="T3" s="2">
-        <v>0.13000000000000012</v>
-      </c>
-      <c r="U3" s="2">
-        <v>3</v>
-      </c>
-      <c r="V3" s="2">
-        <v>-2</v>
-      </c>
-      <c r="W3" s="2">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2">
-        <v>1.3802112417116059</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>1.8920946026904804</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>0.18469143081759881</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -716,58 +523,10 @@
         <v>13</v>
       </c>
       <c r="K4" s="2">
-        <v>29</v>
-      </c>
-      <c r="L4" s="2">
-        <v>24</v>
-      </c>
-      <c r="M4" s="2">
-        <v>78</v>
-      </c>
-      <c r="N4" s="2">
-        <v>1.53</v>
-      </c>
-      <c r="O4" s="2">
-        <v>137</v>
-      </c>
-      <c r="P4" s="2">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2">
-        <v>12</v>
-      </c>
-      <c r="S4" s="2">
-        <v>18</v>
-      </c>
-      <c r="T4" s="2">
-        <v>-0.17999999999999994</v>
-      </c>
-      <c r="U4" s="2">
-        <v>2</v>
-      </c>
-      <c r="V4" s="2">
-        <v>-4</v>
-      </c>
-      <c r="W4" s="2">
-        <v>1</v>
-      </c>
-      <c r="X4" s="2">
-        <v>1.5563025007672873</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>1.9822712330395684</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>0.13033376849500614</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -799,58 +558,10 @@
         <v>12</v>
       </c>
       <c r="K5" s="2">
-        <v>30</v>
-      </c>
-      <c r="L5" s="2">
-        <v>25</v>
-      </c>
-      <c r="M5" s="2">
-        <v>84</v>
-      </c>
-      <c r="N5" s="2">
-        <v>1.53</v>
-      </c>
-      <c r="O5" s="2">
-        <v>127</v>
-      </c>
-      <c r="P5" s="2">
-        <v>13</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2">
-        <v>1</v>
-      </c>
-      <c r="S5" s="2">
-        <v>11</v>
-      </c>
-      <c r="T5" s="2">
-        <v>-0.13000000000000012</v>
-      </c>
-      <c r="U5" s="2">
-        <v>-7</v>
-      </c>
-      <c r="V5" s="2">
-        <v>2</v>
-      </c>
-      <c r="W5" s="2">
-        <v>-1</v>
-      </c>
-      <c r="X5" s="2">
-        <v>1.414973347970818</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>1.9777236052888478</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>0.14612803567823801</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -882,58 +593,10 @@
         <v>11</v>
       </c>
       <c r="K6" s="2">
-        <v>23</v>
-      </c>
-      <c r="L6" s="2">
-        <v>26</v>
-      </c>
-      <c r="M6" s="2">
-        <v>95</v>
-      </c>
-      <c r="N6" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="O6" s="2">
-        <v>129</v>
-      </c>
-      <c r="P6" s="2">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2">
-        <v>-8</v>
-      </c>
-      <c r="S6" s="2">
-        <v>1</v>
-      </c>
-      <c r="T6" s="2">
-        <v>0</v>
-      </c>
-      <c r="U6" s="2">
-        <v>1</v>
-      </c>
-      <c r="V6" s="2">
-        <v>1</v>
-      </c>
-      <c r="W6" s="2">
-        <v>-1</v>
-      </c>
-      <c r="X6" s="2">
-        <v>1.255272505103306</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>1.9822712330395684</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>0.14612803567823801</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -965,58 +628,10 @@
         <v>14</v>
       </c>
       <c r="K7" s="2">
-        <v>24</v>
-      </c>
-      <c r="L7" s="2">
-        <v>18</v>
-      </c>
-      <c r="M7" s="2">
-        <v>96</v>
-      </c>
-      <c r="N7" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="O7" s="2">
-        <v>130</v>
-      </c>
-      <c r="P7" s="2">
-        <v>11</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2">
-        <v>12</v>
-      </c>
-      <c r="S7" s="2">
-        <v>5</v>
-      </c>
-      <c r="T7" s="2">
-        <v>0</v>
-      </c>
-      <c r="U7" s="2">
-        <v>-1</v>
-      </c>
-      <c r="V7" s="2">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2">
-        <v>3</v>
-      </c>
-      <c r="X7" s="2">
-        <v>1.4771212547196624</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>2.0043213737826426</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>0.14612803567823801</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -1048,58 +663,10 @@
         <v>13</v>
       </c>
       <c r="K8" s="2">
-        <v>23</v>
-      </c>
-      <c r="L8" s="2">
-        <v>30</v>
-      </c>
-      <c r="M8" s="2">
-        <v>101</v>
-      </c>
-      <c r="N8" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="O8" s="2">
-        <v>130</v>
-      </c>
-      <c r="P8" s="2">
-        <v>14</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2">
-        <v>-3</v>
-      </c>
-      <c r="S8" s="2">
-        <v>-5</v>
-      </c>
-      <c r="T8" s="2">
-        <v>0</v>
-      </c>
-      <c r="U8" s="2">
-        <v>-1</v>
-      </c>
-      <c r="V8" s="2">
-        <v>-2</v>
-      </c>
-      <c r="W8" s="2">
-        <v>-1</v>
-      </c>
-      <c r="X8" s="2">
-        <v>1.4313637641589874</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>1.9822712330395684</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>0.14612803567823801</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -1131,58 +698,10 @@
         <v>14</v>
       </c>
       <c r="K9" s="2">
-        <v>22</v>
-      </c>
-      <c r="L9" s="2">
-        <v>27</v>
-      </c>
-      <c r="M9" s="2">
-        <v>96</v>
-      </c>
-      <c r="N9" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="O9" s="2">
-        <v>128</v>
-      </c>
-      <c r="P9" s="2">
-        <v>13</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2">
-        <v>8</v>
-      </c>
-      <c r="S9" s="2">
-        <v>4</v>
-      </c>
-      <c r="T9" s="2">
-        <v>0</v>
-      </c>
-      <c r="U9" s="2">
-        <v>-1</v>
-      </c>
-      <c r="V9" s="2">
-        <v>-4</v>
-      </c>
-      <c r="W9" s="2">
-        <v>1</v>
-      </c>
-      <c r="X9" s="2">
-        <v>1.5440680443502757</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>0.14612803567823801</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -1214,58 +733,10 @@
         <v>11</v>
       </c>
       <c r="K10" s="2">
-        <v>37</v>
-      </c>
-      <c r="L10" s="2">
-        <v>26</v>
-      </c>
-      <c r="M10" s="2">
-        <v>87</v>
-      </c>
-      <c r="N10" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="O10" s="2">
-        <v>137</v>
-      </c>
-      <c r="P10" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>0</v>
-      </c>
-      <c r="R10" s="2">
-        <v>-6</v>
-      </c>
-      <c r="S10" s="2">
-        <v>13</v>
-      </c>
-      <c r="T10" s="2">
-        <v>0.13000000000000012</v>
-      </c>
-      <c r="U10" s="2">
-        <v>-1</v>
-      </c>
-      <c r="V10" s="2">
-        <v>0</v>
-      </c>
-      <c r="W10" s="2">
-        <v>1</v>
-      </c>
-      <c r="X10" s="2">
-        <v>1.3010299956639813</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>0.12385164096708581</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
@@ -1297,55 +768,7 @@
         <v>12</v>
       </c>
       <c r="K11" s="2">
-        <v>36</v>
-      </c>
-      <c r="L11" s="2">
-        <v>20</v>
-      </c>
-      <c r="M11" s="2">
-        <v>100</v>
-      </c>
-      <c r="N11" s="2">
-        <v>1.33</v>
-      </c>
-      <c r="O11" s="2">
-        <v>137</v>
-      </c>
-      <c r="P11" s="2">
-        <v>11</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2">
-        <v>11</v>
-      </c>
-      <c r="S11" s="2">
-        <v>-2</v>
-      </c>
-      <c r="T11" s="2">
-        <v>-0.13000000000000012</v>
-      </c>
-      <c r="U11" s="2">
-        <v>-0.39999999999999858</v>
-      </c>
-      <c r="V11" s="2">
-        <v>0</v>
-      </c>
-      <c r="W11" s="2">
-        <v>1</v>
-      </c>
-      <c r="X11" s="2">
-        <v>1.4913616938342726</v>
-      </c>
-      <c r="Y11" s="2">
-        <v>1.9912260756924949</v>
-      </c>
-      <c r="Z11" s="2">
-        <v>7.9181246047624818E-2</v>
-      </c>
-      <c r="AA11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
